--- a/biology/Mycologie/Pézize_en_bouclier/Pézize_en_bouclier.xlsx
+++ b/biology/Mycologie/Pézize_en_bouclier/Pézize_en_bouclier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9zize_en_bouclier</t>
+          <t>Pézize_en_bouclier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">TAXON · Pézize en bouclier
 Scutellinia scutellata, la Pézize en bouclier, est une espèce de champignons ascomycètes de la famille des Pyronemataceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9zize_en_bouclier</t>
+          <t>Pézize_en_bouclier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Formes
-Selon MycoBank                                            (8 février 2023)[1] :
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (8 février 2023) :
 Scutellinia scutellata f. latispora Svrcek, 1960
 Scutellinia scutellata f. scutellata
-Scutellinia scutellata f. terrigena (P.Karst.) Le Gal, 1966
-Variétés
-Selon MycoBank                                            (8 février 2023)[1] :
+Scutellinia scutellata f. terrigena (P.Karst.) Le Gal, 1966</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pézize_en_bouclier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/P%C3%A9zize_en_bouclier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des formes et variétés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (8 février 2023) :
 Scutellinia scutellata var. cervorum (Velen.) Le Gal, 1966
 Scutellinia scutellata var. discreta Kullman &amp; Raitv., 1982
 Scutellinia scutellata var. indica S.D.Patil &amp; M.S.Patil, 1984
@@ -530,35 +581,37 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>P%C3%A9zize_en_bouclier</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pézize_en_bouclier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/P%C3%A9zize_en_bouclier</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Scutellinia scutellata (L.) Lambotte, 1887[1].
-L'espèce a été initialement classée dans le genre Peziza sous le basionyme Peziza scutellata L., 1753[1].
-Scutellinia scutellata a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Scutellinia scutellata (L.) Lambotte, 1887.
+L'espèce a été initialement classée dans le genre Peziza sous le basionyme Peziza scutellata L., 1753.
+Scutellinia scutellata a pour synonymes :
 Ciliaria scutellata (L.) Boud., 1887
 Helvella ciliata Scop., 1772
 Humaria scutellata (L.) Fuckel, 1870
@@ -573,31 +626,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>P%C3%A9zize_en_bouclier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pézize_en_bouclier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/P%C3%A9zize_en_bouclier</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>J.B.É. Lambotte, « La Flore Mycologique de la Belgique. Premier Supplément comprenant les Hyménomycètes-Pyrénomycètes-Discomycètes. Addition de 1070 espèces à la flore de 1880 », Mémoires de la Société royale des sciences de Liège, vol. 14,‎ 1887, p. 1-350 (ISSN 0369-1799, lire en ligne)</t>
         </is>
